--- a/biology/Origine et évolution du vivant/Isolement_reproductif/Isolement_reproductif.xlsx
+++ b/biology/Origine et évolution du vivant/Isolement_reproductif/Isolement_reproductif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'isolement reproductif ou barrière reproductive désigne tout mécanisme empêchant — ou limitant fortement — l'hybridation de deux espèces habitant la même région, même lorsqu'elles sont étroitement apparentées.
-On doit à Theodosius Dobjansky[1] une tentative de classification de ces processus. Un premier niveau distingue les mécanismes qui font barrière à l'accouplement (mécanismes précopulatoires) ou à la fécondation  (mécanismes prézygotiques) de ceux qui, intervenant après la fécondation, réduisent la viabilité ou la fertilité des œufs fécondés ou des individus hybrides qui en sont issus (mécanismes postcopulatoires ou postzygotiques).
-Selon Ernst Mayr, le concept d'isolement reproductif est un critère essentiel pour la définition biologique d'une espèce, et sa réalité objective, au cours de l'évolution[2].
+On doit à Theodosius Dobjansky une tentative de classification de ces processus. Un premier niveau distingue les mécanismes qui font barrière à l'accouplement (mécanismes précopulatoires) ou à la fécondation  (mécanismes prézygotiques) de ceux qui, intervenant après la fécondation, réduisent la viabilité ou la fertilité des œufs fécondés ou des individus hybrides qui en sont issus (mécanismes postcopulatoires ou postzygotiques).
+Selon Ernst Mayr, le concept d'isolement reproductif est un critère essentiel pour la définition biologique d'une espèce, et sa réalité objective, au cours de l'évolution.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Mécanismes précopulatoires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Isolement écologique
 Les milieux de vie ne sont pas les mêmes.
@@ -556,7 +570,9 @@
           <t>Mécanismes post-copulatoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pré-zygotiques: empêchent la formation des hybrides fertiles ; n'empêchent pas le gaspillage gamétique, mais ils empêchent la formation des zygotes.
 Post-zygotiques:interviennent après la formation des hybrides par la mortalité zygotique, l'inviabilité des hybrides stériles, inviabilité des descendants.</t>
@@ -587,7 +603,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(fr) C. Henry, Biologie des populations animales et végétales, Dunod, Paris, 2001, 709 p.  (ISBN 2100058088).
 (fr) E. Mayr, Populations, espèces et évolution, Hermann, Paris, 1974  (ISBN 2705657495), p. 63-93.
